--- a/TeacherBackend/Note.xlsx
+++ b/TeacherBackend/Note.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-20" windowWidth="14400" windowHeight="16420" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="14400" windowHeight="16420" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Student ID</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>All priv 2</t>
+  </si>
+  <si>
+    <t>Early Access</t>
+  </si>
+  <si>
+    <t>Late Access</t>
   </si>
 </sst>
 </file>
@@ -426,16 +432,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="45.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" customWidth="1"/>
@@ -443,7 +449,7 @@
     <col min="7" max="7" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -488,8 +500,14 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -511,8 +529,14 @@
       <c r="G3" t="b">
         <v>0</v>
       </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -532,6 +556,12 @@
         <v>1</v>
       </c>
       <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
     </row>
